--- a/Excel_Files/Stats_Populations/1_cm/827_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/827_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003535335571155389</v>
+        <v>0.005762812417360434</v>
       </c>
       <c r="D2">
-        <v>0.0004509451675764041</v>
+        <v>0.005540426105148637</v>
       </c>
       <c r="E2">
-        <v>0.0004009351805927092</v>
+        <v>0.005624178290034717</v>
       </c>
       <c r="F2">
-        <v>0.000367530944305664</v>
+        <v>0.005231884226271735</v>
       </c>
       <c r="G2">
-        <v>0.0002216623686351822</v>
+        <v>0.005288209500551881</v>
       </c>
       <c r="H2">
-        <v>0.0004509451675764041</v>
+        <v>0.005762812417360434</v>
       </c>
       <c r="I2">
-        <v>0.0003799467732531117</v>
+        <v>0.006730521257520989</v>
       </c>
       <c r="J2">
-        <v>0.0005680951038642438</v>
+        <v>0.005863151651276539</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001886173811158162</v>
+        <v>0.005379020617559678</v>
       </c>
       <c r="D3">
-        <v>0.0003950895174608803</v>
+        <v>0.005231199810207268</v>
       </c>
       <c r="E3">
-        <v>0.0002816945254185484</v>
+        <v>0.00534978638114958</v>
       </c>
       <c r="F3">
-        <v>0.000165793341901365</v>
+        <v>0.00496740033595514</v>
       </c>
       <c r="G3">
-        <v>0.0001666561356309106</v>
+        <v>0.004837468987272804</v>
       </c>
       <c r="H3">
-        <v>0.0002762745293445559</v>
+        <v>0.005220449708783715</v>
       </c>
       <c r="I3">
-        <v>0.0002700259226100816</v>
+        <v>0.005720922873287655</v>
       </c>
       <c r="J3">
-        <v>0.0002317899119853782</v>
+        <v>0.005318083496851168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001152200244758807</v>
+        <v>0.004970423949774334</v>
       </c>
       <c r="D4">
-        <v>0.0002145430674714844</v>
+        <v>0.004998711265459578</v>
       </c>
       <c r="E4">
-        <v>0.0001937847333806751</v>
+        <v>0.00499696529372223</v>
       </c>
       <c r="F4">
-        <v>7.937949318480259E-05</v>
+        <v>0.004603490908035553</v>
       </c>
       <c r="G4">
-        <v>6.713799626776951E-05</v>
+        <v>0.004433490418200811</v>
       </c>
       <c r="H4">
-        <v>0.0001438671939904285</v>
+        <v>0.004906758048666354</v>
       </c>
       <c r="I4">
-        <v>0.0001835344594959819</v>
+        <v>0.005407887698689848</v>
       </c>
       <c r="J4">
-        <v>6.66150980288586E-05</v>
+        <v>0.004672611846878955</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.806983695813531E-06</v>
+        <v>0.002745036479119777</v>
       </c>
       <c r="D5">
-        <v>9.640928027841788E-06</v>
+        <v>0.002897685027479402</v>
       </c>
       <c r="E5">
-        <v>8.820606018899573E-06</v>
+        <v>0.002840865389837813</v>
       </c>
       <c r="F5">
-        <v>4.684501612757765E-06</v>
+        <v>0.002365683118265524</v>
       </c>
       <c r="G5">
-        <v>3.598233069020202E-06</v>
+        <v>0.002184069158031584</v>
       </c>
       <c r="H5">
-        <v>5.723918387151156E-06</v>
+        <v>0.002511056934148014</v>
       </c>
       <c r="I5">
-        <v>1.016925625462418E-05</v>
+        <v>0.002941204115359184</v>
       </c>
       <c r="J5">
-        <v>5.321864985268614E-06</v>
+        <v>0.002433684287065702</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.913041699402684E-06</v>
+        <v>0.00240417382180475</v>
       </c>
       <c r="D6">
-        <v>5.36054817638837E-06</v>
+        <v>0.00244969602623608</v>
       </c>
       <c r="E6">
-        <v>4.479672316729688E-06</v>
+        <v>0.002347501276814878</v>
       </c>
       <c r="F6">
-        <v>2.167047478933069E-06</v>
+        <v>0.001897602103223284</v>
       </c>
       <c r="G6">
-        <v>2.064929526614993E-06</v>
+        <v>0.001865076256707485</v>
       </c>
       <c r="H6">
-        <v>2.770920890474034E-06</v>
+        <v>0.002022074003776643</v>
       </c>
       <c r="I6">
-        <v>5.508727654350113E-06</v>
+        <v>0.002492981094237125</v>
       </c>
       <c r="J6">
-        <v>2.735583219539971E-06</v>
+        <v>0.00201021766203521</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.104210235971202E-06</v>
+        <v>0.0018774968218663</v>
       </c>
       <c r="D7">
-        <v>3.333461428455903E-06</v>
+        <v>0.002111571493072729</v>
       </c>
       <c r="E7">
-        <v>1.252027938051832E-06</v>
+        <v>0.001594233643090536</v>
       </c>
       <c r="F7">
-        <v>7.495816482591951E-07</v>
+        <v>0.00138305193471245</v>
       </c>
       <c r="G7">
-        <v>1.02480029382073E-06</v>
+        <v>0.001491097154226183</v>
       </c>
       <c r="H7">
-        <v>7.495816482591951E-07</v>
+        <v>0.00138305193471245</v>
       </c>
       <c r="I7">
-        <v>3.732724356541283E-06</v>
+        <v>0.002206081621309544</v>
       </c>
       <c r="J7">
-        <v>9.400862280358854E-07</v>
+        <v>0.001479972492412587</v>
       </c>
     </row>
   </sheetData>
